--- a/Texts/Город Сокровищ/Все персонажи/Даскнуар.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Даскнуар.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -91,6 +91,81 @@
   </si>
   <si>
     <t xml:space="preserve"> Èäåòû îàòóïìûëï öïñïšï, œóï ÿ\nâïèíïçîï é òàí èäåòû ïòóàîôòû çéóû...\nÖïï-öïï-öà!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/um1308.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I will lend my support to\ncapturing that thieving [CS:N]Grovyle[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Let us work together...[K]and catch\nthat [CS:N]Grovyle[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ ðïíïãô âàí â ðïéíëå üóïãï\nðïöéóéóåìÿ [CS:N]Ãñïâàêìà[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïóñôäéíòÿ òïïáþà...[K] É ðïêíàåí\n[CS:N]Ãñïâàêìà[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я помогу вам в поимке этого\nпохитителя [CS:N]Гровайла[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Потрудимся сообща...[K] И поймаем\n[CS:N]Гровайла[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The [CS:P]Northern Desert[CR] is vast and\ndeep. It is also frequently scoured by savage\nsandstorms.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Please do take care!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:P]Северная Пустыня[CR] обширна,\nглубока и к тому же, в ней часто возникают\nсильные песчаные бури.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:P]Òåâåñîàÿ Ðôòóúîÿ[CR] ïášéñîà,\nãìôáïëà é ë óïíô çå, â îåê œàòóï âïèîéëàýó\nòéìûîúå ðåòœàîúå áôñé.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Пожалуйста, берегите себя!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïçàìôêòóà, áåñåãéóå òåáÿ!</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/um1307.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P04A/um1303.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I\'m sorry. I\'m certain that we\'ll\ndevise our next plan soon.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Until then, please conduct\nsearches on your own.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> That\'s all I can ask of you now.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мне очень жаль. Я уверен, что\nскоро мы придумаем новый план.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> До сей поры, вам придётся\nискать самим.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Это всё, о чем я могу вас\nпросить.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íîå ïœåîû çàìû. Ÿ ôâåñåî, œóï\nòëïñï íú ðñéäôíàåí îïâúê ðìàî.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Äï òåê ðïñú, âàí ðñéäæóòÿ\néòëàóû òàíéí.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üóï âòæ, ï œæí ÿ íïãô âàò\nðñïòéóû.</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P04A/um1402.ssb</t>
   </si>
 </sst>
 </file>
@@ -121,7 +196,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -153,11 +228,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -172,6 +256,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -454,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -470,7 +566,7 @@
     <col min="6" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -487,7 +583,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -504,7 +600,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="B3" s="4">
         <v>91</v>
       </c>
@@ -518,7 +614,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" s="4">
         <v>94</v>
       </c>
@@ -532,7 +628,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="B5" s="4">
         <v>97</v>
       </c>
@@ -546,7 +642,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="B6" s="4">
         <v>100</v>
       </c>
@@ -560,18 +656,133 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B7" s="4">
+    <row r="7" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6">
         <v>103</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="7" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="4">
+        <v>66</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6">
+        <v>69</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="4">
+        <v>44</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6">
+        <v>47</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="4">
+        <v>18</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="4">
+        <v>21</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="4">
+        <v>24</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
